--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -9,10 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="13755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="13755" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Usuario" sheetId="1" r:id="rId1"/>
+    <sheet name="Paciente" sheetId="2" r:id="rId2"/>
+    <sheet name="Medico" sheetId="3" r:id="rId3"/>
+    <sheet name="Enfermero" sheetId="4" r:id="rId4"/>
+    <sheet name="Historia clinica" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,12 +27,496 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="157">
+  <si>
+    <t>Rol</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Apellido</t>
+  </si>
+  <si>
+    <t>Celular</t>
+  </si>
+  <si>
+    <t>e-mail</t>
+  </si>
+  <si>
+    <t>direccion</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>Medico</t>
+  </si>
+  <si>
+    <t>Paciente</t>
+  </si>
+  <si>
+    <t>Enfermeros</t>
+  </si>
+  <si>
+    <t>Alvaro</t>
+  </si>
+  <si>
+    <t>Granados</t>
+  </si>
+  <si>
+    <t>Cra 7 # 48-25</t>
+  </si>
+  <si>
+    <t>AlvaGran</t>
+  </si>
+  <si>
+    <t>alvaGran@gmail.com</t>
+  </si>
+  <si>
+    <t>mediciGRAN</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Gomez</t>
+  </si>
+  <si>
+    <t>calle 52 sur # 52B-35</t>
+  </si>
+  <si>
+    <t>calle 52 sur # 52B-36</t>
+  </si>
+  <si>
+    <t>calle 52 sur # 52B-49</t>
+  </si>
+  <si>
+    <t>JuGo</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Alvarado</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaime </t>
+  </si>
+  <si>
+    <t>Buitrago</t>
+  </si>
+  <si>
+    <t>Manrique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leidy </t>
+  </si>
+  <si>
+    <t>Avellaneda</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Hernandez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge </t>
+  </si>
+  <si>
+    <t>Rivas</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Salazar</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>Gisell</t>
+  </si>
+  <si>
+    <t>Jhonatan</t>
+  </si>
+  <si>
+    <t>Bohorquez</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Bahamon</t>
+  </si>
+  <si>
+    <t>Nombre Familiar</t>
+  </si>
+  <si>
+    <t>Apellido familiar</t>
+  </si>
+  <si>
+    <t>Parentesco</t>
+  </si>
+  <si>
+    <t>celular</t>
+  </si>
+  <si>
+    <t>Especialidad</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Geriatrica</t>
+  </si>
+  <si>
+    <t>Comunitaria</t>
+  </si>
+  <si>
+    <t>Pediatrica</t>
+  </si>
+  <si>
+    <t>Salud mental</t>
+  </si>
+  <si>
+    <t>Pediatria</t>
+  </si>
+  <si>
+    <t>Traumatologia</t>
+  </si>
+  <si>
+    <t>Cirugía General</t>
+  </si>
+  <si>
+    <t>Hematología</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Medicina general</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henry </t>
+  </si>
+  <si>
+    <t>Moreno</t>
+  </si>
+  <si>
+    <t>Bonifacio</t>
+  </si>
+  <si>
+    <t>Aristizabal</t>
+  </si>
+  <si>
+    <t>Snake</t>
+  </si>
+  <si>
+    <t>Leonardo</t>
+  </si>
+  <si>
+    <t>Villegas</t>
+  </si>
+  <si>
+    <t>LUCKYgom56</t>
+  </si>
+  <si>
+    <t>calle 28 sur # 56B-23</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>Latorre</t>
+  </si>
+  <si>
+    <t>carrera 8 # 65-37</t>
+  </si>
+  <si>
+    <t>calle 64 # 45B-21</t>
+  </si>
+  <si>
+    <t>danilop523@gmail.com</t>
+  </si>
+  <si>
+    <t>carrera 68 # 25A-39</t>
+  </si>
+  <si>
+    <t>GissMan27@gmail.com</t>
+  </si>
+  <si>
+    <t>Jugomez@hotmail.com</t>
+  </si>
+  <si>
+    <t>Josealvarado@yahoo.com</t>
+  </si>
+  <si>
+    <t>JuSalazar598@gmail.com</t>
+  </si>
+  <si>
+    <t>georgeriv15@gmail.com</t>
+  </si>
+  <si>
+    <t>JaimeBuit12@hotmail.com</t>
+  </si>
+  <si>
+    <t>MarioHerna@hotmail.com</t>
+  </si>
+  <si>
+    <t>LadyAv651@yahoo.com</t>
+  </si>
+  <si>
+    <t>JaimeBuit</t>
+  </si>
+  <si>
+    <t>LadyAv</t>
+  </si>
+  <si>
+    <t>MarioHerna</t>
+  </si>
+  <si>
+    <t>JaimeValen</t>
+  </si>
+  <si>
+    <t>calle 105 # 52-40</t>
+  </si>
+  <si>
+    <t>calle 35 sur # 41B-21</t>
+  </si>
+  <si>
+    <t>joalvarado</t>
+  </si>
+  <si>
+    <t>GissMan27</t>
+  </si>
+  <si>
+    <t>georgeriv15</t>
+  </si>
+  <si>
+    <t>Lausa297</t>
+  </si>
+  <si>
+    <t>JuSalazar598</t>
+  </si>
+  <si>
+    <t>DaniBohor</t>
+  </si>
+  <si>
+    <t>carrera 11A # 23-43</t>
+  </si>
+  <si>
+    <t>Lausa297@hotmail.com</t>
+  </si>
+  <si>
+    <t>DaniBohor@yahoo.com</t>
+  </si>
+  <si>
+    <t>JoseBaham</t>
+  </si>
+  <si>
+    <t>Darkmetal@gmail.com</t>
+  </si>
+  <si>
+    <t>Flashbatman@gmail.com</t>
+  </si>
+  <si>
+    <t>JoseBaham25@hotmail.com</t>
+  </si>
+  <si>
+    <t>BonifacioAristiz@gmail.com</t>
+  </si>
+  <si>
+    <t>JhonSan25</t>
+  </si>
+  <si>
+    <t>JhonSan25@gmail.com</t>
+  </si>
+  <si>
+    <t>Darkmetal</t>
+  </si>
+  <si>
+    <t>LeoVillemil@gmail.com</t>
+  </si>
+  <si>
+    <t>Launa@gmail.com</t>
+  </si>
+  <si>
+    <t>nicolat@gmail.com</t>
+  </si>
+  <si>
+    <t>Flashbat</t>
+  </si>
+  <si>
+    <t>calle 29 sur # 42B-43</t>
+  </si>
+  <si>
+    <t>BoniAristiz</t>
+  </si>
+  <si>
+    <t>LeonVillega</t>
+  </si>
+  <si>
+    <t>LaurG</t>
+  </si>
+  <si>
+    <t>NicoLatorre</t>
+  </si>
+  <si>
+    <t>carrera 24 # 52-46</t>
+  </si>
+  <si>
+    <t>carrera 39 # 54-45</t>
+  </si>
+  <si>
+    <t>carrera 27 # 52-42</t>
+  </si>
+  <si>
+    <t>calle 38 sur # 26C-52</t>
+  </si>
+  <si>
+    <t>Gissell_familia</t>
+  </si>
+  <si>
+    <t>SnakeLopez_25</t>
+  </si>
+  <si>
+    <t>Gomez_456</t>
+  </si>
+  <si>
+    <t>calle 45 # 23A-50</t>
+  </si>
+  <si>
+    <t>carrera 8 # 40-69</t>
+  </si>
+  <si>
+    <t>carrera 9 # 25B-48</t>
+  </si>
+  <si>
+    <t>calle 53 sur # 17B-36</t>
+  </si>
+  <si>
+    <t>LA_dian5236</t>
+  </si>
+  <si>
+    <t>CHOCOrramo89</t>
+  </si>
+  <si>
+    <t>Bocadillo23</t>
+  </si>
+  <si>
+    <t>Padre</t>
+  </si>
+  <si>
+    <t>ILOVE_NY5234</t>
+  </si>
+  <si>
+    <t>Jimenez</t>
+  </si>
+  <si>
+    <t>Madre</t>
+  </si>
+  <si>
+    <t>MariaJUAN132</t>
+  </si>
+  <si>
+    <t>ROCK_salazar</t>
+  </si>
+  <si>
+    <t>JhonWick59</t>
+  </si>
+  <si>
+    <t>JOSEpinkman26</t>
+  </si>
+  <si>
+    <t>ILoveMETAL84</t>
+  </si>
+  <si>
+    <t>MarvelDC4EVER</t>
+  </si>
+  <si>
+    <t>magdalena4265</t>
+  </si>
+  <si>
+    <t>CALIviejo264</t>
+  </si>
+  <si>
+    <t>SevenColors5236</t>
+  </si>
+  <si>
+    <t>NICOlaura59</t>
+  </si>
+  <si>
+    <t>Lady</t>
+  </si>
+  <si>
+    <t>Soler</t>
+  </si>
+  <si>
+    <t>Esposa</t>
+  </si>
+  <si>
+    <t>Frecuencia Cardiaca</t>
+  </si>
+  <si>
+    <t>Presion Arterial</t>
+  </si>
+  <si>
+    <t>Temperatura</t>
+  </si>
+  <si>
+    <t>Hermano</t>
+  </si>
+  <si>
+    <t>Luisa</t>
+  </si>
+  <si>
+    <t>Hija</t>
+  </si>
+  <si>
+    <t>Wilmar</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Bautista</t>
+  </si>
+  <si>
+    <t>Esposo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edgar </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -51,13 +539,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -336,12 +827,1008 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C2:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>3215268452</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>3225647828</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>3115659342</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>3154265216</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7">
+        <v>3128329728</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8">
+        <v>3214628345</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9">
+        <v>3144296542</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10">
+        <v>3182487825</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11">
+        <v>3254975228</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12">
+        <v>3224651882</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13">
+        <v>3155946422</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14">
+        <v>3134257828</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15">
+        <v>3253647935</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16">
+        <v>3185656410</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17">
+        <v>3202957623</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18">
+        <v>3046233528</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" t="s">
+        <v>109</v>
+      </c>
+      <c r="J18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19">
+        <v>3108527828</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" t="s">
+        <v>111</v>
+      </c>
+      <c r="J19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20">
+        <v>3124217295</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" t="s">
+        <v>112</v>
+      </c>
+      <c r="J20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <v>3175647828</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" t="s">
+        <v>124</v>
+      </c>
+      <c r="I21" t="s">
+        <v>113</v>
+      </c>
+      <c r="J21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22">
+        <v>3214243858</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" t="s">
+        <v>114</v>
+      </c>
+      <c r="J22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1"/>
+    <hyperlink ref="G4" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="G6" r:id="rId4"/>
+    <hyperlink ref="G7" r:id="rId5"/>
+    <hyperlink ref="G8" r:id="rId6"/>
+    <hyperlink ref="G9:G12" r:id="rId7" display="GissMan27@gmail.com"/>
+    <hyperlink ref="G9" r:id="rId8"/>
+    <hyperlink ref="G10" r:id="rId9"/>
+    <hyperlink ref="G13" r:id="rId10"/>
+    <hyperlink ref="G14:G22" r:id="rId11" display="JuSalazar598@gmail.com"/>
+    <hyperlink ref="G11" r:id="rId12"/>
+    <hyperlink ref="G12" r:id="rId13"/>
+    <hyperlink ref="G14" r:id="rId14"/>
+    <hyperlink ref="G15" r:id="rId15"/>
+    <hyperlink ref="G16" r:id="rId16"/>
+    <hyperlink ref="G17" r:id="rId17"/>
+    <hyperlink ref="G18" r:id="rId18"/>
+    <hyperlink ref="G19" r:id="rId19"/>
+    <hyperlink ref="G20" r:id="rId20"/>
+    <hyperlink ref="G21" r:id="rId21"/>
+    <hyperlink ref="G22" r:id="rId22"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId23"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4">
+        <v>3156248956</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5">
+        <v>3256453218</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6">
+        <v>3212647895</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7">
+        <v>3114259876</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8">
+        <v>3015892118</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9">
+        <v>3123649521</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10">
+        <v>3156253897</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11">
+        <v>3225628326</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12">
+        <v>3267526312</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13">
+        <v>3105239648</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>120</v>
+      </c>
+      <c r="E3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>160</v>
+      </c>
+      <c r="D4">
+        <v>140</v>
+      </c>
+      <c r="E4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>85</v>
+      </c>
+      <c r="D5">
+        <v>160</v>
+      </c>
+      <c r="E5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>180</v>
+      </c>
+      <c r="D6">
+        <v>129</v>
+      </c>
+      <c r="E6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>190</v>
+      </c>
+      <c r="D7">
+        <v>180</v>
+      </c>
+      <c r="E7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>160</v>
+      </c>
+      <c r="D8">
+        <v>120</v>
+      </c>
+      <c r="E8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>125</v>
+      </c>
+      <c r="D9">
+        <v>145</v>
+      </c>
+      <c r="E9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="D10">
+        <v>130</v>
+      </c>
+      <c r="E10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>180</v>
+      </c>
+      <c r="E11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>125</v>
+      </c>
+      <c r="E12">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>